--- a/Project3/data/data.xlsx
+++ b/Project3/data/data.xlsx
@@ -5,50 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanlhe/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanlhe/github/CS6378/Project3/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE04DBEA-910A-854F-B7E4-91CD6FF7CD95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDF75BF-1A15-A34F-B113-1B89E82AA4B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{92F2080A-CE3B-F548-8AB9-126271E42773}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" activeTab="1" xr2:uid="{92F2080A-CE3B-F548-8AB9-126271E42773}"/>
   </bookViews>
   <sheets>
     <sheet name="plot" sheetId="1" r:id="rId1"/>
     <sheet name="experiment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">plot!$C$2:$C$5</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">plot!$D$2:$D$5</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">plot!$C$2:$C$5</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">plot!$D$2:$D$5</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">plot!$E$2:$E$5</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">plot!$F$2:$F$5</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">plot!$G$2:$G$5</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">plot!$C$2:$C$5</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">plot!$D$2:$D$5</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">plot!$E$2:$E$5</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">plot!$F$2:$F$5</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">plot!$G$2:$G$5</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">plot!$E$2:$E$5</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">plot!$C$2:$C$5</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">plot!$D$2:$D$5</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">plot!$E$2:$E$5</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">plot!$F$2:$F$5</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">plot!$G$2:$G$5</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">plot!$C$2:$C$5</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">plot!$D$2:$D$5</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">plot!$E$2:$E$5</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">plot!$F$2:$F$5</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">plot!$G$2:$G$5</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">plot!$F$2:$F$5</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">plot!$G$2:$G$5</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">plot!$C$2:$C$5</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">plot!$D$2:$D$5</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">plot!$E$2:$E$5</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">plot!$F$2:$F$5</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">plot!$G$2:$G$5</definedName>
-  </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -103,15 +71,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -119,12 +93,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -826,10 +843,10 @@
                   <c:v>15.687999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.76</c:v>
+                  <c:v>15.747999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.680000000000001</c:v>
+                  <c:v>15.571999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -893,10 +910,10 @@
                   <c:v>183.43280000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>178.24100000000001</c:v>
+                  <c:v>160.76100000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>157.1386</c:v>
+                  <c:v>135.14519999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -960,10 +977,10 @@
                   <c:v>251.52800000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>249</c:v>
+                  <c:v>271.07399999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>249.23799999999997</c:v>
+                  <c:v>274.39800000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1027,10 +1044,10 @@
                   <c:v>149.86399999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>153.22999999999999</c:v>
+                  <c:v>135.48999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>154.45999999999998</c:v>
+                  <c:v>133.30800000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4076,8 +4093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D43271-4BED-6A40-BBC9-572309A93D6B}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4309,19 +4326,19 @@
       </c>
       <c r="D9">
         <f>experiment!L23</f>
-        <v>15.76</v>
+        <v>15.747999999999999</v>
       </c>
       <c r="E9">
         <f>experiment!M23/10</f>
-        <v>178.24100000000001</v>
+        <v>160.76100000000002</v>
       </c>
       <c r="F9">
         <f>experiment!N23</f>
-        <v>249</v>
+        <v>271.07399999999996</v>
       </c>
       <c r="G9">
         <f>experiment!O23</f>
-        <v>153.22999999999999</v>
+        <v>135.48999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -4339,19 +4356,19 @@
       </c>
       <c r="D10">
         <f>experiment!L31</f>
-        <v>15.680000000000001</v>
+        <v>15.571999999999999</v>
       </c>
       <c r="E10">
         <f>experiment!M31/10</f>
-        <v>157.1386</v>
+        <v>135.14519999999999</v>
       </c>
       <c r="F10">
         <f>experiment!N31</f>
-        <v>249.23799999999997</v>
+        <v>274.39800000000002</v>
       </c>
       <c r="G10">
         <f>experiment!O31</f>
-        <v>154.45999999999998</v>
+        <v>133.30800000000002</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -4485,10 +4502,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F27E37-7666-294D-A1BF-2AC480C73440}">
-  <dimension ref="A1:W31"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29:O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5170,6 +5187,18 @@
       <c r="G19">
         <v>144.63</v>
       </c>
+      <c r="L19">
+        <v>15.76</v>
+      </c>
+      <c r="M19">
+        <v>1528.2</v>
+      </c>
+      <c r="N19">
+        <v>279.27999999999997</v>
+      </c>
+      <c r="O19">
+        <v>128.72999999999999</v>
+      </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D20">
@@ -5184,6 +5213,18 @@
       <c r="G20">
         <v>150.28</v>
       </c>
+      <c r="L20">
+        <v>15.76</v>
+      </c>
+      <c r="M20">
+        <v>1534.2</v>
+      </c>
+      <c r="N20">
+        <v>282</v>
+      </c>
+      <c r="O20">
+        <v>129.61000000000001</v>
+      </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D21">
@@ -5198,6 +5239,18 @@
       <c r="G21">
         <v>141.91999999999999</v>
       </c>
+      <c r="L21">
+        <v>15.79</v>
+      </c>
+      <c r="M21">
+        <v>1609.02</v>
+      </c>
+      <c r="N21">
+        <v>271.14999999999998</v>
+      </c>
+      <c r="O21">
+        <v>132.5</v>
+      </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D22">
@@ -5212,6 +5265,18 @@
       <c r="G22">
         <v>144.9</v>
       </c>
+      <c r="L22">
+        <v>15.67</v>
+      </c>
+      <c r="M22">
+        <v>1584.22</v>
+      </c>
+      <c r="N22">
+        <v>273.94</v>
+      </c>
+      <c r="O22">
+        <v>133.38</v>
+      </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23">
@@ -5250,19 +5315,19 @@
       </c>
       <c r="L23">
         <f>SUBTOTAL(101,Table1812[message complexity])</f>
-        <v>15.76</v>
+        <v>15.747999999999999</v>
       </c>
       <c r="M23">
         <f>SUBTOTAL(101,Table1812[[ response time]])</f>
-        <v>1782.41</v>
+        <v>1607.6100000000001</v>
       </c>
       <c r="N23">
         <f>SUBTOTAL(101,Table1812[[ system throughput]])</f>
-        <v>249</v>
+        <v>271.07399999999996</v>
       </c>
       <c r="O23">
         <f>SUBTOTAL(101,Table1812[[ synchronization delay]])</f>
-        <v>153.22999999999999</v>
+        <v>135.48999999999998</v>
       </c>
       <c r="Q23">
         <v>27</v>
@@ -5342,16 +5407,16 @@
         <v>145.13999999999999</v>
       </c>
       <c r="L26">
-        <v>15.7</v>
+        <v>15.51</v>
       </c>
       <c r="M26">
-        <v>1605.34</v>
+        <v>1351.36</v>
       </c>
       <c r="N26">
-        <v>243.8</v>
+        <v>272.70999999999998</v>
       </c>
       <c r="O26">
-        <v>157.97999999999999</v>
+        <v>135.71</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
@@ -5368,16 +5433,16 @@
         <v>141.56</v>
       </c>
       <c r="L27">
-        <v>15.69</v>
+        <v>15.64</v>
       </c>
       <c r="M27">
-        <v>1569.62</v>
+        <v>1330.7</v>
       </c>
       <c r="N27">
-        <v>256.01</v>
+        <v>281.79000000000002</v>
       </c>
       <c r="O27">
-        <v>151.38</v>
+        <v>130.01</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
@@ -5394,16 +5459,16 @@
         <v>146.07</v>
       </c>
       <c r="L28">
-        <v>15.8</v>
+        <v>15.77</v>
       </c>
       <c r="M28">
-        <v>1580</v>
+        <v>1392.98</v>
       </c>
       <c r="N28">
-        <v>251.85</v>
+        <v>274.87</v>
       </c>
       <c r="O28">
-        <v>150.81</v>
+        <v>131.21</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
@@ -5420,16 +5485,16 @@
         <v>144.03</v>
       </c>
       <c r="L29">
-        <v>15.67</v>
+        <v>15.5</v>
       </c>
       <c r="M29">
-        <v>1543.86</v>
+        <v>1347.72</v>
       </c>
       <c r="N29">
-        <v>248.19</v>
+        <v>269.44</v>
       </c>
       <c r="O29">
-        <v>155.85</v>
+        <v>135.97999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
@@ -5446,16 +5511,16 @@
         <v>141.36000000000001</v>
       </c>
       <c r="L30">
-        <v>15.54</v>
+        <v>15.44</v>
       </c>
       <c r="M30">
-        <v>1558.11</v>
+        <v>1334.5</v>
       </c>
       <c r="N30">
-        <v>246.34</v>
+        <v>273.18</v>
       </c>
       <c r="O30">
-        <v>156.28</v>
+        <v>133.63</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
@@ -5495,19 +5560,19 @@
       </c>
       <c r="L31">
         <f>SUBTOTAL(101,Table1813[message complexity])</f>
-        <v>15.680000000000001</v>
+        <v>15.571999999999999</v>
       </c>
       <c r="M31">
         <f>SUBTOTAL(101,Table1813[[ response time]])</f>
-        <v>1571.386</v>
+        <v>1351.452</v>
       </c>
       <c r="N31">
         <f>SUBTOTAL(101,Table1813[[ system throughput]])</f>
-        <v>249.23799999999997</v>
+        <v>274.39800000000002</v>
       </c>
       <c r="O31">
         <f>SUBTOTAL(101,Table1813[[ synchronization delay]])</f>
-        <v>154.45999999999998</v>
+        <v>133.30800000000002</v>
       </c>
       <c r="Q31">
         <v>36</v>
@@ -5533,6 +5598,76 @@
       <c r="W31" t="e">
         <f>SUBTOTAL(101,Table181317[[ synchronization delay]])</f>
         <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="12:15" x14ac:dyDescent="0.2">
+      <c r="L42" s="1">
+        <v>15.7</v>
+      </c>
+      <c r="M42" s="2">
+        <v>1605.34</v>
+      </c>
+      <c r="N42" s="2">
+        <v>243.8</v>
+      </c>
+      <c r="O42" s="5">
+        <v>157.97999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="12:15" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>15.69</v>
+      </c>
+      <c r="M43" s="4">
+        <v>1569.62</v>
+      </c>
+      <c r="N43" s="4">
+        <v>256.01</v>
+      </c>
+      <c r="O43" s="6">
+        <v>151.38</v>
+      </c>
+    </row>
+    <row r="44" spans="12:15" x14ac:dyDescent="0.2">
+      <c r="L44" s="1">
+        <v>15.8</v>
+      </c>
+      <c r="M44" s="2">
+        <v>1580</v>
+      </c>
+      <c r="N44" s="2">
+        <v>251.85</v>
+      </c>
+      <c r="O44" s="5">
+        <v>150.81</v>
+      </c>
+    </row>
+    <row r="45" spans="12:15" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>15.67</v>
+      </c>
+      <c r="M45" s="4">
+        <v>1543.86</v>
+      </c>
+      <c r="N45" s="4">
+        <v>248.19</v>
+      </c>
+      <c r="O45" s="6">
+        <v>155.85</v>
+      </c>
+    </row>
+    <row r="46" spans="12:15" x14ac:dyDescent="0.2">
+      <c r="L46" s="1">
+        <v>15.54</v>
+      </c>
+      <c r="M46" s="2">
+        <v>1558.11</v>
+      </c>
+      <c r="N46" s="2">
+        <v>246.34</v>
+      </c>
+      <c r="O46" s="5">
+        <v>156.28</v>
       </c>
     </row>
   </sheetData>
